--- a/templates/每日主動通報.xlsx
+++ b/templates/每日主動通報.xlsx
@@ -313,18 +313,15 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -658,13 +655,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="8" max="9" width="10.25" customWidth="1"/>
+    <col min="10" max="11" width="13.875" customWidth="1"/>
+    <col min="26" max="26" width="37.875" customWidth="1"/>
+    <col min="27" max="27" width="11.625" customWidth="1"/>
+    <col min="32" max="32" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="42.75">
@@ -872,5 +875,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>